--- a/弹簧振子/nt吧？手绘干啥？？？.xlsx
+++ b/弹簧振子/nt吧？手绘干啥？？？.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equationzhao\Desktop\物理实验\弹簧振子\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E3D04F-8CEB-48DF-AB92-4286582A454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7129076-7CFD-411F-9486-21E8A55969A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,8 +1117,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>指针位置</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>  </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1904,6 +1916,2076 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Ek</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11210870516185478"/>
+          <c:y val="2.7615923009623809E-2"/>
+          <c:w val="0.8648912948381452"/>
+          <c:h val="0.60630358705161858"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$51:$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$60:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4118498625880591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3981021980619587E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0582552370114242E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1955174718477E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0470214000640591E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4893766886240601E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2935891569161554E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8B1-4BC2-818F-E8E6636023D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$61:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1266275943566832E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3513679025386163E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6085509696847756E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0632541426629686E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1128201573778994E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5739085380233196E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8B1-4BC2-818F-E8E6636023D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="89300031"/>
+        <c:axId val="89302943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89300031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89302943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89302943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89300031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Ep-t</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9170068299986186E-2"/>
+          <c:y val="0.11722178543816412"/>
+          <c:w val="0.93879018452169261"/>
+          <c:h val="0.82119721747859487"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>#1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$51:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$66:$L$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5178500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.391222405643317E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1664820974613839E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0929903031522451E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5459585733703158E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2065679842622104E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5021109146197667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3995296981910948E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8886852786917929E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3F7-4614-A711-BB8E18003771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>#2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$51:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$65:$L$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5548979999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4304813741194047E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5679580193804082E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9664276298857536E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0353462528152295E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4501958599935937E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5545490623311372E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5419621084308379E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9095990158720969E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A3F7-4614-A711-BB8E18003771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>#3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$51:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$67:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.3781250000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4914019069026982E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2627876018389686E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7963318131408429E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.537498945030644E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5218340048030561E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2081644159439055E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1244999240567255E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6023134164634525E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8028862084219343E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3300439380018775E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A3F7-4614-A711-BB8E18003771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="93811247"/>
+        <c:axId val="93807503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="93811247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>T/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93807503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93807503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Ep/J</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93811247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>T-1/K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9085139917109711E-2"/>
+                  <c:y val="-2.6772849894773125E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="2400" baseline="0"/>
+                      <a:t>y = 1.9656x</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$119:$L$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$120:$L$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26C1-4F54-B10C-117F390226F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="365757199"/>
+        <c:axId val="365756783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="365757199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>1/K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365756783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="365756783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>T/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365757199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1984,6 +4066,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
@@ -3020,20 +5222,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>281747</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>582506</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>165488</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3060,16 +6810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>336178</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>391408</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>36818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>465045</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>88525</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>517073</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3089,6 +6839,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>275544</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D1A9F9-8C94-4EC5-AFFC-B99427E5A7F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>503463</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A71A99E-A4E4-43F1-905A-B965DAB7D0C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D49B365-EEC6-4E0B-9055-EDA805D1EEC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3360,10 +7218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="H83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119:L120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3510,20 +7368,14 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
+      <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="G36" t="s">
         <v>4</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -3548,6 +7400,10 @@
         <f>(B38-A38)/200</f>
         <v>6.1999999999999993E-2</v>
       </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E40" si="0">20/1000</f>
+        <v>0.02</v>
+      </c>
       <c r="G38">
         <v>8.09</v>
       </c>
@@ -3567,11 +7423,15 @@
         <f>(B39-A39)/200</f>
         <v>0.115</v>
       </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
       <c r="G39">
         <v>5.32</v>
       </c>
       <c r="J39">
-        <f t="shared" ref="J39:J40" si="0">C39*COS(SQRT(G39/0.002))</f>
+        <f t="shared" ref="J39:J40" si="1">C39*COS(SQRT(G39/0.002))</f>
         <v>2.9685488558911441E-2</v>
       </c>
     </row>
@@ -3586,11 +7446,15 @@
         <f>(B40-A40)/200</f>
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
       <c r="G40">
         <v>7.61</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0276699875794708E-2</v>
       </c>
     </row>
@@ -3747,82 +7611,399 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1.5</v>
+      </c>
+      <c r="F51">
+        <v>1.67</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2.33</v>
+      </c>
+      <c r="I51">
+        <v>2.5</v>
+      </c>
+      <c r="J51">
+        <v>2.66</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>SQRT(8.09/0.02)*D44</f>
         <v>70.392648763915673</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:F53" si="1">SQRT(8.09/0.02)*E44</f>
+        <f t="shared" ref="B53:F53" si="2">SQRT(8.09/0.02)*E44</f>
         <v>78.437522908363178</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.448741444475061</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82.45995998058693</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86.482397052810683</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.504834125034449</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>SQRT(5.32/0.02)*D46</f>
         <v>17.777362009027097</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:F54" si="2">SQRT(5.32/0.02)*E46</f>
+        <f t="shared" ref="B54:F54" si="3">SQRT(5.32/0.02)*E46</f>
         <v>23.159499131026127</v>
       </c>
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.138069516844133</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.095210288480146</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.357111574540163</v>
       </c>
       <c r="F54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.172586896055169</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>SQRT(7.61/0.02)*D48</f>
         <v>38.427626130168385</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:F55" si="3">SQRT(7.61/0.02)*E48</f>
+        <f t="shared" ref="B55:F55" si="4">SQRT(7.61/0.02)*E48</f>
         <v>41.665690057888156</v>
       </c>
       <c r="C55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.148177157326131</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.304228430951177</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.864741167201664</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.137830896045507</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f>0.5*C38^2*G38</f>
+        <v>1.5548979999999995E-2</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>$B60*SIN(SQRT($G38/0.02)*D51)^2</f>
+        <v>1.4118498625880591E-2</v>
+      </c>
+      <c r="F60">
+        <f>$B60*SIN(SQRT($G38/0.02)*E51)^2</f>
+        <v>1.3981021980619587E-2</v>
+      </c>
+      <c r="G60">
+        <f>$B60*SIN(SQRT($G38/0.02)*F51)^2</f>
+        <v>1.0582552370114242E-2</v>
+      </c>
+      <c r="H60">
+        <f>$B60*SIN(SQRT($G38/0.02)*G51)^2</f>
+        <v>5.1955174718477E-3</v>
+      </c>
+      <c r="I60">
+        <f>$B60*SIN(SQRT($G38/0.02)*H51)^2</f>
+        <v>1.0470214000640591E-3</v>
+      </c>
+      <c r="J60">
+        <f>$B60*SIN(SQRT($G38/0.02)*I51)^2</f>
+        <v>3.4893766886240601E-6</v>
+      </c>
+      <c r="K60">
+        <f>$B60*SIN(SQRT($G38/0.02)*J51)^2</f>
+        <v>1.2935891569161554E-4</v>
+      </c>
+      <c r="L60">
+        <f>$B60*SIN(SQRT($G38/0.02)*K51)^2</f>
+        <v>5.6393809841278975E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <f t="shared" ref="B61" si="5">0.5*C39^2*G39</f>
+        <v>3.5178500000000001E-2</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>$B61*SIN(SQRT($G39/0.02)*D51)^2</f>
+        <v>1.1266275943566832E-2</v>
+      </c>
+      <c r="F61">
+        <f>$B61*SIN(SQRT($G39/0.02)*E51)^2</f>
+        <v>1.3513679025386163E-2</v>
+      </c>
+      <c r="G61">
+        <f>$B61*SIN(SQRT($G39/0.02)*F51)^2</f>
+        <v>2.6085509696847756E-2</v>
+      </c>
+      <c r="H61">
+        <f>$B61*SIN(SQRT($G39/0.02)*G51)^2</f>
+        <v>3.0632541426629686E-2</v>
+      </c>
+      <c r="I61">
+        <f>$B61*SIN(SQRT($G39/0.02)*H51)^2</f>
+        <v>3.1128201573778994E-3</v>
+      </c>
+      <c r="J61">
+        <f>$B61*SIN(SQRT($G39/0.02)*I51)^2</f>
+        <v>1.5739085380233196E-4</v>
+      </c>
+      <c r="K61">
+        <f>$B61*SIN(SQRT($G39/0.02)*J51)^2</f>
+        <v>1.1183203018089055E-2</v>
+      </c>
+      <c r="L61">
+        <f>$B61*SIN(SQRT($G39/0.02)*K51)^2</f>
+        <v>3.3289814721308209E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f>0.5*C40^2*G40</f>
+        <v>2.3781250000000005E-3</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>$B62*SIN(SQRT($G40/0.02)*D51)^2</f>
+        <v>8.8672309309730218E-4</v>
+      </c>
+      <c r="F62">
+        <f>$B62*SIN(SQRT($G40/0.02)*E51)^2</f>
+        <v>1.6518462398161036E-3</v>
+      </c>
+      <c r="G62">
+        <f>$B62*SIN(SQRT($G40/0.02)*F51)^2</f>
+        <v>1.9984918186859162E-3</v>
+      </c>
+      <c r="H62">
+        <f>$B62*SIN(SQRT($G40/0.02)*G51)^2</f>
+        <v>2.2243751054969361E-3</v>
+      </c>
+      <c r="I62">
+        <f>$B62*SIN(SQRT($G40/0.02)*H51)^2</f>
+        <v>2.3529066599519699E-3</v>
+      </c>
+      <c r="J62">
+        <f>$B62*SIN(SQRT($G40/0.02)*I51)^2</f>
+        <v>2.3660433558405614E-3</v>
+      </c>
+      <c r="K62">
+        <f>$B62*SIN(SQRT($G40/0.02)*J51)^2</f>
+        <v>2.3720005000759437E-3</v>
+      </c>
+      <c r="L62">
+        <f>$B62*SIN(SQRT($G40/0.02)*K51)^2</f>
+        <v>2.0178936583536552E-3</v>
+      </c>
+      <c r="M62">
+        <f>$B62*SIN(SQRT($G40/0.02)*L51)^2</f>
+        <v>5.7523879157806606E-4</v>
+      </c>
+      <c r="N62">
+        <f>$B62*SIN(SQRT($G40/0.02)*M51)^2</f>
+        <v>4.8081061998123048E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <f>$B60-D60</f>
+        <v>1.5548979999999995E-2</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:L65" si="6">$B60-E60</f>
+        <v>1.4304813741194047E-3</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>1.5679580193804082E-3</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>4.9664276298857536E-3</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>1.0353462528152295E-2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="6"/>
+        <v>1.4501958599935937E-2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="6"/>
+        <v>1.5545490623311372E-2</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="6"/>
+        <v>1.5419621084308379E-2</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="6"/>
+        <v>9.9095990158720969E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <f t="shared" ref="D66:N67" si="7">$B61-D61</f>
+        <v>3.5178500000000001E-2</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="7"/>
+        <v>2.391222405643317E-2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="7"/>
+        <v>2.1664820974613839E-2</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="7"/>
+        <v>9.0929903031522451E-3</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="7"/>
+        <v>4.5459585733703158E-3</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="7"/>
+        <v>3.2065679842622104E-2</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="7"/>
+        <v>3.5021109146197667E-2</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="7"/>
+        <v>2.3995296981910948E-2</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="7"/>
+        <v>1.8886852786917929E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <f t="shared" si="7"/>
+        <v>2.3781250000000005E-3</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="7"/>
+        <v>1.4914019069026982E-3</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="7"/>
+        <v>7.2627876018389686E-4</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="7"/>
+        <v>3.7963318131408429E-4</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="7"/>
+        <v>1.537498945030644E-4</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="7"/>
+        <v>2.5218340048030561E-5</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="7"/>
+        <v>1.2081644159439055E-5</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="7"/>
+        <v>6.1244999240567255E-6</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="7"/>
+        <v>3.6023134164634525E-4</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="7"/>
+        <v>1.8028862084219343E-3</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="7"/>
+        <v>2.3300439380018775E-3</v>
+      </c>
+    </row>
+    <row r="85" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <v>0.43</v>
+      </c>
+      <c r="J119">
+        <v>0.45</v>
+      </c>
+      <c r="K119">
+        <v>0.47</v>
+      </c>
+      <c r="L119">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <v>0.8</v>
+      </c>
+      <c r="J120">
+        <v>0.92</v>
+      </c>
+      <c r="K120">
+        <v>0.93</v>
+      </c>
+      <c r="L120">
+        <v>0.98399999999999999</v>
       </c>
     </row>
   </sheetData>
